--- a/biology/Botanique/Christian_Ferdinand_Friedrich_Hochstetter/Christian_Ferdinand_Friedrich_Hochstetter.xlsx
+++ b/biology/Botanique/Christian_Ferdinand_Friedrich_Hochstetter/Christian_Ferdinand_Friedrich_Hochstetter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Friedrich Ferdinand Hochstetter (16 février 1787 - 20 février 1860) est un botaniste wurtembergeois et pasteur protestant natif de Stuttgart. Il est le père du géologue Ferdinand von Hochstetter.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1807, Hochstetter a obtenu son diplôme de théologie à Tübingen. Alors qu'il était encore étudiant, il était devenu membre d'une organisation secrète dirigée par Karl von Reichenbach qui envisageait de créer une colonie sur Tahiti. En 1808, l'organisation a été découverte par les autorités et ses membres soupçonnés de trahison et arrêtés. Hochstetter a été emprisonné pendant une courte période pour son petit rôle dans la société secrète.
 Plus tard, il a passé six mois comme professeur dans un établissement privé à Erlangen et a ensuite été tuteur pendant 4 ans dans la maison du pasteur d'Altenstein. En 1816, il devient pasteur et inspecteur de l'enseignement à Brno. En 1824, il s'installe à Esslingen am Neckar où il devient enseignant à l'école confessionnelle et, en 1829, pasteur à Esslingen. Là, il a créé Unio Itineraria (un club d'échange botanique) avec Ernst Gottlieb von Steudel. Unio Itineraria vendait des spécimens botaniques à des musées privés collectionneurs et à des distributeurs dans d'autres villes européennes, dont Londres, où ils ont maintenu un agent.
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Hochstetteria (pt) de la famille des Asteraceae est nommé d'après lui.
 </t>
@@ -575,7 +591,9 @@
           <t>Literatur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robert Zander: Zander Handwörterbuch der Pflanzennamen. Hrsg. von Fritz Encke, Günther Buchheim, Siegmund Seybold. 13., neubearbeitete und erweiterte Auflage. Eugen Ulmer, Stuttgart 1984,  (ISBN 3-8001-5042-5).
 Helmut Engisch: Der Traum von Otaheiti und vom Od. In: Helmut Engisch: Der schwäbische Büffelkönig und die Löwenmadam. Theiss, Stuttgart 1998,  (ISBN 3-8062-1328-3)</t>
